--- a/明日之后共创服数据库/副本.xlsx
+++ b/明日之后共创服数据库/副本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86198\Desktop\明日之后共创服数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\明日之后LifeAfter\Lifeafter database\明日之后共创服数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB1F0DF-0DBB-480D-88AD-17C2283B1E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A733030-3522-4485-96FF-DAA42D49A3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="4680" windowWidth="22680" windowHeight="10116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2916" yWindow="720" windowWidth="17172" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>副本编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,31 +39,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>副本模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反击难度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通或讨伐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,25 +376,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,25 +409,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -460,13 +421,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -475,11 +431,6 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
